--- a/CASUAL/LA TICC/VILLANUEVA, MARILYN LOQUIAS.xlsx
+++ b/CASUAL/LA TICC/VILLANUEVA, MARILYN LOQUIAS.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="111">
   <si>
     <t>PERIOD</t>
   </si>
@@ -351,6 +351,24 @@
   </si>
   <si>
     <t>UT(0-0-15)</t>
+  </si>
+  <si>
+    <t>UT(0-0-10)</t>
+  </si>
+  <si>
+    <t>UT(0-0-20)</t>
+  </si>
+  <si>
+    <t>UT(0-1-18)</t>
+  </si>
+  <si>
+    <t>UT(0-1-8)</t>
+  </si>
+  <si>
+    <t>UT(0-1-5)</t>
+  </si>
+  <si>
+    <t>UT(0-0-27)</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1671,7 @@
   <dimension ref="A2:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
       <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
     </sheetView>
@@ -1816,7 +1834,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>59.89</v>
+        <v>59.301000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2967,11 +2985,15 @@
         <f t="shared" ref="A66:A68" si="0">EDATE(A65,1)</f>
         <v>44652</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="40"/>
+      <c r="D66" s="40">
+        <v>5.6000000000000015E-2</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
@@ -2988,11 +3010,15 @@
         <f t="shared" si="0"/>
         <v>44682</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
-      <c r="D67" s="40"/>
+      <c r="D67" s="40">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
@@ -3009,11 +3035,15 @@
         <f t="shared" si="0"/>
         <v>44713</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C68" s="13">
         <v>1.25</v>
       </c>
-      <c r="D68" s="40"/>
+      <c r="D68" s="40">
+        <v>3.1000000000000014E-2</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
@@ -3029,11 +3059,15 @@
       <c r="A69" s="41">
         <v>44743</v>
       </c>
-      <c r="B69" s="20"/>
+      <c r="B69" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
-      <c r="D69" s="40"/>
+      <c r="D69" s="40">
+        <v>0.14200000000000002</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
@@ -3049,11 +3083,15 @@
       <c r="A70" s="41">
         <v>44774</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="40"/>
+      <c r="D70" s="40">
+        <v>0.16200000000000003</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -3069,11 +3107,15 @@
       <c r="A71" s="41">
         <v>44805</v>
       </c>
-      <c r="B71" s="20"/>
+      <c r="B71" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
-      <c r="D71" s="40"/>
+      <c r="D71" s="40">
+        <v>4.2000000000000003E-2</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
@@ -3089,11 +3131,15 @@
       <c r="A72" s="41">
         <v>44835</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="40"/>
+      <c r="D72" s="40">
+        <v>2.1000000000000005E-2</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
@@ -5396,17 +5442,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5508,11 +5554,11 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G3" s="46">
         <f>SUM(D3,E4,F4)</f>
-        <v>3.1000000000000014E-2</v>
+        <v>5.6000000000000015E-2</v>
       </c>
       <c r="J3" s="35"/>
       <c r="K3" s="36">
@@ -5531,7 +5577,7 @@
       </c>
       <c r="F4" s="1">
         <f>IF(F3=0,0,IF(ISBLANK(F3),"",VLOOKUP(F3,C7:D66,2)))</f>
-        <v>3.1000000000000014E-2</v>
+        <v>5.6000000000000015E-2</v>
       </c>
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
